--- a/500all/speech_level/speeches_CHRG-114hhrg97612.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97612.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. All right. Good morning. I apologize for the delay, but we are here now. This is the hearing on the ``Oversight Failures Behind the Radiological Incident at DOE's Waste Isolation Pilot Plant.''    Today we will review a costly series of oversight failures at two important Department of Energy sites. These failures contributed to a radiological leak last year at one of the sites, the Waste Isolation Pilot Plant, known as WIPP, which serves to dispose in mined salt caverns certain types of radiological waste from our Nation's nuclear weapons programs.    This leak, along with a separate truck fire the week before, exposed management and oversight shortcomings both at WIPP and at one of the Nation's premier national laboratories, the Los Alamos National Laboratory. Los Alamos, it turns out, was the source of the radiological material and the errors that caused a reaction in the material that burst a container in WIPP's underground facility.    Since the incident, WIPP has been shut down, and the Department has embarked on remediation, training, and rebuilding that will cost taxpayers an estimated $240 million just to restart limited operations next year. All told, it may ultimately cost more than $500 million before full operations are estimated to commence in 2018, and there are reports of DOE fines or settlements of some $73 million.    This was no small oversight failure, and the issues we will examine today raise broader questions about the state of the Department's oversight framework for operations and its various cleanup at nuclear sites.    The root cause of the radiological incident was established in a DOE report this past April. Basically, hundreds of containers were inappropriately packaged for WIPP disposal by workers at Los Alamos. They packaged waste mixtures with organic absorbants, which created reactive and ignitable waste forms.    The specific culprit was off-the-shelf organic kitty litter, and the use of this organic material was traced to someone writing down ``organic'' instead of ``inorganic''--a simple human error. But this is more than what happens when you don't pay attention in high school chemistry and spelling classes. This failure to catch an error reflected a much larger systemic failure.    Two years before the incident, Los Alamos actually stopped work that had been mixing waste with organics precisely because of the reactivity and ignition risks. The lab's so-called Difficult Waste Team, along with Federal site officials, directed a safety process change that would use inorganics as absorbants.    The problem was, over the next year and a half, no one in management or among Federal overseers made sure the new procedures were followed, so what they thought was fixed wasn't. And no one in management or at the Federal level reviewed the process to determine why workers had been creating dangerous mixtures in the first place--a basic practice of an effective safety system.    As the Los Alamos Lab's own review noted, the fact that so many critical management, safety, and oversight mechanisms all failed simultaneously over an extended period of time are of significant concern.    Also of significant concern are patterns of oversight failure found to have occurred at the WIPP site. For example, at WIPP, both the contractor and Feds failed to identify or fix shortcomings in equipment and degraded conditions in the mine over a period of years. These errors led to the environmental release and added tens of millions to the cost of recovery operations.    The failures at these sites contribute to a long story of DOE struggles to conduct adequate oversight of its management and operating contractors, which are responsible for much of the core activities of the Department.    Just over 2 years ago, DOE and National Nuclear Security Administration, NNSA, officials came before this committee to explain security failures at the Y-12 National Security Site in Tennessee. The failures were notoriously exposed when several elderly peace activists penetrated the security perimeter of the most secure section of the site.    What was clear from that incident sounds very familiar today: What the Feds thought was working wasn't. Site officials trusted that contractors were doing what they were supposed to do without checking. Federal line oversight had failed.    We were told then that the successful reliance on department contractors depends on strong and clear lines of accountability and on meaningful and consistent measurement of contractor performance. We were promised that actions would be taken to address the shortcomings. Yet we have again learned from GAO that the DOE and NNSA have yet to make significant progress to make the necessary reforms with regard to measurement of contractor performance, and this is not acceptable.    Today we will hear from department officials and the GAO, all of whom can explain the costly oversight failures at WIPP and Los Alamos, what is being done, and what must be done to fix these problems at the sites and across the complex. I hope this hearing helps to identify what is necessary for DOE to develop an oversight system that can effectively identify, address safety issues and security issues before they become costly mistakes.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400101</t>
   </si>
   <si>
-    <t>Diana DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you very much, Mr. Chairman.    And, again, I want to thank you for your comity in holding the hearing till I got here. As you know, the President was briefing the Democratic caucus, and I felt like I owed him to listen to what he had to say.    And I am particularly glad you waited for me because when I heard your opening statement it was deja vu all over again to me, because I have been on this O&amp;I panel for most, if not all, of the incidents that you discussed.    We have had over a dozen hearings since I have been here to examine oversight failures and contractor mismanagement at the DOE NNSA Nuclear Complex. A perusal of the GAO testimony today reveals a string of mishaps and management failures over the last decade involving these sites. And that is why, for years, DOE and NNSA have remained on the agency's high-risk list for Federal programs highly susceptible to mismanagement and waste.    The problems have been costly and disruptive. For example, in 2004, which was over a decade ago, there were so many incidents at Los Alamos that the lab director shut down the entire facility for several weeks to address them. A few years later, at a hearing on lab security, our beloved chairman emeritus, John Dingell, observed, quote, ``I feel a little bit like this is the movie 'Groundhog Day.' For some reason or another, DOE has proven itself incapable of managing this critical security and preventing recurring problems.'' That was in 2007.    Now, as you mentioned, in July 2012, the DOE NNSA complex was in the news again because these protestors with basic tools managed to cut the fence at Y-12 and gain access to the area surrounding a highly enriched uranium storage facility. This was supposed to be one of the most secure facilities in the country, but, as you said, a small group of aging activists, including an 82-year-old nun, were able to access the compound uninterrupted by security. And if you haven't seen those videos, just watch them. It is chilling.    As I said in a hearing about that incident, without good oversight, serious issues won't be identified and fixed, and the results could be disastrous. I can't think of any reason why we would want to decrease our oversight of these facilities, inhibit the ability of oversight to review site actions, or reduce accountability for those responsible for keeping the nuclear sites safe. That was in 2012.    Now, we quickly learned that the Y-12 fiasco was not an isolated event. Last year, a waste drum packed by a Los Alamos contractor managed to burst open and contaminate the Nation's only transuranic waste repository. Called the Waste Isolation Pilot Plant, or WIPP, this facility is supposed to house most of the Nation's low-level, cold-war-generated nuclear waste. This incident resulted in closing the facility perhaps for years. It will also cost the taxpayer millions of dollars to clean up.    In the last several decades, we have seen the DOE use a range of strategies to oversee their contractors. And I do want to say I think the DOE has made some efforts. After concerns that hands-on oversight was burdensome and ineffective, DOE and NNSA adopted a less intrusive oversight strategy. The new model, which had reliance on contractor assurance systems, was supposed to let contractors assess performance and provide data for Federal oversight efforts.    Nonetheless, since the implementation of this strategy 5 years ago, we continue to have incidents that make me question this approach. I mentioned the security incident at Y-12. Y-12 was one of the first facilities NNSA affirmed as having in place an effective and mature contractor assurance system capable of identifying risks and weaknesses. But this system failed, and the committee had several hearings to see what went wrong. We received assurances from the DOE that they had learned lessons from the past and were committed to implementing the new management and performance measures. Nonetheless, the more recent incidents involving WIPP suggest this oversight framework is not where it needs to be.    So where are we now? I think it is safe to say this new oversight framework needs major retooling. Mr. Chairman, I don't know if we are back to square one. I certainly hope we are not. But, at a minimum, we need to establish a clear path forward. I hope DOE and NNSA will share some ideas so they can actually make progress in implementing the new framework. If excessive transactional oversight is not the answer and reliance on a contractor assurance system is not the answer, then what is the answer?    And we need to figure this out pronto, Mr. Chairman, not just because of these two incidents but because the missions at NNSA sites are critical to our Nation's security.    In response to the GAO report, NNSA outlined plans for a new corporate policy that will form a comprehensive framework for a contractor assurance system. I don't even know what that means, Mr. Chairman, but I hope we can get some answers today about how that new policy will result in significant and effective changes at the agency.    We have been going in circles, and we have to stop doing that. So I hope we can see some changes come out of the WIPP accident investigations and GAO's latest report. We are going to be vigilant, but I have to be honest, I am not overly optimistic.    Thanks, and I yield back.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman.    And I am not going to take 5 minutes, and I will yield the time to whomever would like it. But I am going to pick up right where Ms. DeGette left off, talking about Y-12.    And as we conducted that hearing and the assurances that we were given that things were going to be more closely watched, and now we find ourselves, as Chairman Murphy said, looking at a hearing where someone either wasn't paying attention in spelling class or science class or didn't know the difference and went on to inappropriately use an organic kitty litter.    The problem for us is, not only is this expensive--you are talking about $551 billion being the estimate to clean this up, to clean it up, and to get the facility operational--you also look at the impact that this has on nuclear-generated power and on storing that waste.    And in Tennessee, where Y-12 is located--and I was up at Oak Ridge the week before last and over at TVA and out at the Watts Bar Plant. And the safe storage of that nuclear waste, as we bring the second Watts Bar reactor on line--it is about 95 percent complete right now--this is something of tremendous concern.    So we are looking for answers. And I think, more than just answers, we are looking for responsible action and a way to solve this so that best practices and protocols are in place and we are not finding ourselves back at a hearing saying, well, we learned a lesson, but we really didn't learn a lesson, and we took no actions from the lesson we were supposed to learn.    With that, Mr. Chairman, I will yield to the gentleman from Texas.</t>
   </si>
   <si>
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. I thank the gentlelady for yielding.    I have been on this subcommittee for over 10 years now. This has been a recurrent theme that comes up over and over again. So I want to echo what other members have said, that it is important to get this right and to get this solved. We are talking about the Nation's nuclear secrets. This should be the most closely guarded and where the greatest attention to detail should be placed to security issues, and we keep having to come here and discuss breaches.    I do want to acknowledge the help of the Government Accountability Office and, in particular, Allison Bawden, who is one of our witnesses today, who has been enormously helpful to our staff through this and other issues.    And, Mr. Chairman, I will yield back the balance of my time.</t>
   </si>
   <si>
@@ -109,27 +97,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Creedon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Creedon. Thank you, Mr. Chairman, Ranking Member DeGette, and members of the subcommittee. I want to thank you for the opportunity today to discuss the radiological release at the Waste Isolation Pilot Plant, or WIPP.    I am pleased to be joined today by Mark Whitney, the Acting Assistant Secretary of Energy for Environmental Management. We have provided written testimony to the subcommittee and respectfully ask that it be submitted for the record.    On February 14, 2014, a radiological release occurred in the Waste Isolation Pilot Plant in New Mexico when a drum, which had been shipped from Los Alamos National Laboratory, experienced an exothermic reaction that led to overpressurization and breach, causing a release of a portion of the drum's contents.    The specifics of this radiological release at WIPP and the subsequent restart activities will be addressed by Mr. Whitney.    While the Department of Energy's National Nuclear Security Administration, NNSA, holds the overall management and operating contract for the Los Alamos National Laboratory, the Department of Energy's Office of Environmental Management is the program lead for legacy waste cleanup activities performed at LANL and for the operation of WIPP. NNSA is, however, responsible for the overall site operations.    That said, I want to assure you all that all of us at DOE take this unintentional release of radioactive material very seriously, as we do all significant events.    What is most troublesome about this event is that, as the accident investigation determined, it was preventable. It will also be costly to fix and has left us without a true waste repository for an indeterminate period of time. And this is simply unacceptable.    Today I will focus on the actions that the NNSA has taken since the event and highlight a few ongoing initiatives we are pursuing to improve the governance and oversight at NNSA sites.    NNSA and the Office of Environmental Management have taken corrective actions in response to the WIPP incident. This includes both long-term and short-term compensatory measures. These measures will address the underlying issues and problems that contributed to the errors in packaging the legacy waste.    NNSA and EM, working with the other components of the Department of Energy, have realigned the Federal program and oversight responsibility for legacy waste materials. The responsibility has been transferred from the local NNSA field office to a newly established environmental management field office.    We have also held our management and operating contractor at the Los Alamos National Laboratory responsible and accountable for their part in allowing conditions to develop that led to this event. The M&amp;O's fee for operating the laboratory was reduced drastically. We did not grant a year of award term, and we took back a year of award term that had previously been awarded. Award term is a year of the contract. So we did not give them an additional year on the contract, and we took back a previously awarded additional year on their contract. We are also in the process of modifying this M&amp;O contract to allow EM to have more direct control over their work at Los Alamos in the near term and then to modify their contracting strategy in the long term.    NNSA is also working on several fronts to improve our overall approach to site governance. We have kicked off two specific initiatives. The first is to examine our contracting strategy to ensure that we incentivize the right behaviors while also holding our labs and sites accountable. The second initiative is to better define the NNSA site governance model, with specific attention to identifying clear expectations regarding contract management and oversight and clarifying the roles and responsibilities between the NNSA field and headquarters elements and, in the case of Los Alamos, the Office of Environmental Management as well.    In conclusion, I want to assure you that the Department understands the seriousness of this event. We have taken numerous concrete and aggressive actions to address the specific events and are also looking at governance generally. These actions will help us ensure that we do not repeat the mistakes that gave rise to this incident and help improve operations across the entire NNSA enterprise.    With that, I thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Mr. Whitney, we will have you go next.</t>
   </si>
   <si>
-    <t>Whitney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitney. Thank you, Mr. Chairman, Ranking Member DeGette, and distinguished members of the subcommittee. Thank you for the opportunity to share our commitment and vision on the Department of Energy's ongoing recovery of the Waste Isolation Pilot Plant.    Safe performance of work is our overriding priority, and the Department's first responsibility is to protect the workers, the public, and the environment. Safety first is the clear expectation behind all of our decisions and our activities. The Secretary and I continue to set the expectation for the EM workforce that safety is integral to accomplishing the mission.    WIPP's primary mission is to safely and permanently dispose of the Nation's defense-related transuranic waste, which is a byproduct of nuclear weapons research and production, facility dismantlement, and site cleanup.    On February 5, 2014, a vehicle used to transport salt caught fire in the WIPP underground. Workers were safely evacuated, and the underground portion of WIPP was shut down, but the fire resulted in minor smoke inhalation to six workers. It did not adversely, however, impact the public or the environment.    On February 14, 2014, a second unrelated event occurred when an air monitor measured airborne radioactivity close to the location where waste was being emplaced. No employees were underground at the time. The next day, low levels of airborne radioactive contamination were detected, the result of when a small amount of radioactivity leaked by the exhaust duct dampers through the unfiltered exhaust ducts and escaped aboveground.    As a result of these events, the WIPP repository is shut down and is currently not accepting waste shipments.    The Department established an Accident Investigation Board to fully investigate the event and understand the causes and factors that contributed to the radiological release. The AIB identified direct causes, root causes, and contributing causes to the radiological release.    While the investigation focused on the activities that contributed to the breached drum in the WIPP underground, the conclusions and analyses represent an opportunity to assess and benchmark all of our operations and apply lessons learned across the EM complex.    We have made considerable progress towards safely recovering WIPP over the last 16 months, including the immediate response to the incidents, our investigation to the incidents, the development of corrective action plans, and the issuance and implementation of the WIPP recovery plan.    We are strengthening safety management programs such as nuclear safety, fire protection, emergency management, and radiological control, reestablishing a bounding safety envelope, and responding to all of our oversight organizations' concerns.    Underground entries were necessarily limited in the weeks following the incidents, but they are now safely performed daily. Restoration of the underground includes radiological surveys, radiological buffers in noncontaminated areas, ground control stability inspections, roof bolting, and equipment maintenance.    Work is being performed also safely in contaminated areas. Adequate ventilation is required, however, for habitability of the underground, including dust removal during mining and removal of exhaust fumes during diesel engine operations. Increasing ventilation capacity is a principal requirement for the safe underground operations, and our plan is to increase ventilation over the next year to support resumption of operations and ultimately to increase the airflow back to pre-incident rates, although that will take several years.    EM has worked diligently to improve oversight at the headquarters and field level. To ensure continued health and safety to the workers, the public, and the environment, the Department must provide effective, comprehensive oversight of work at every phase and level. EM is committed to strengthening Federal and contractor oversight competencies. Many of these actions have already been implemented.    In summary, WIPP is an important national resource that we are working hard to recover. DOE will resume disposal operations at WIPP but only when it is safe to do so. The safety of workers, the public, and the environment is first and foremost. And we continue to keep the community and stakeholders, including Congress, informed of WIPP recovery in a transparent manner.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Mr. Wyka, we understand you are not testifying today but you are going to be available to answer questions. Thank you.    Ms. Bawden, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Bawden</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bawden. Chairman Murphy, Ranking Member DeGette, and members of the subcommittee, thank you for inviting me today to discuss GAO's report on the framework established by the Department of Energy and its National Nuclear Security Administration for overseeing management and operating contractors. These M&amp;O contractors are trusted by the Government to achieve some of its most sensitive national security missions.    GAO has reported for decades on the management challenges DOE faces for contract administration and oversight. My testimony today highlights three findings from GAO's recently completed work on NNSA's framework for overseeing its M&amp;O contractors, as well as preliminary observations from GAO's ongoing work that includes examining oversight of WIPP.    These findings from our work and the parallels drawn to oversight of WIPP are particularly important in light of two competing narratives about DOE oversight of M&amp;O contractors.    On the one hand, there are the series of safety and security incidents on which GAO and others have reported for years. Many of these incidents have indicated the need for better oversight, such as the 2012 security incident at Y-12, 2008 security performance issues at Livermore, and safety and security performance issues at Los Alamos in 2004 and 2006.    On the other hand, there is discussion of Federal micromanagement of M&amp;O contractors and excessive and burdensome requirements that affect productivity.    DOE's current oversight framework, which was established in 2011 to bridge these two narratives, requires M&amp;O contractors to develop assurance systems, or CAS, that provide data to help contractors drive continuous improvement in their operations and that can be leveraged, when appropriate, to improve the efficiency of Federal oversight by relying on the contractor-generated information from CAS.    A 2011 NNSA policy elaborates on DOE's framework by identifying assessments Federal overseers should conduct to determine when it is appropriate to leverage CAS for oversight. These are: the risk of an activity, the maturity of the contractor's CAS or a way of thinking about the reliability of the information provided by the contractor systems, and the contractor's past performance.    NNSA's policy describes balancing the oversight approaches that can result from these assessments. On one side is transaction-based oversight or direct oversight, such as inspections and performance testing, particularly for high-risk or high-hazard activities. And on the other side is system-based oversight, where NNSA can rely on contractor-generated information it receives from contractor systems.    In our recently completed work regarding NNSA's implementation of the framework for overseeing M&amp;O contractors, we found the following:    First, NNSA has not fully established policy or guidance for implementing its framework to oversee M&amp;O contractors. Specifically, at the headquarters level, NNSA does not have guidance to fully support conducting the three assessments required by its policy. While NNSA has some guidance for assessing risk, it has no policy or guidance for assessing the maturity of CAS or for evaluating past performance. We concluded that, without this policy or guidance, oversight approaches could over-rely or under-rely on information from     Second, NNSA field offices have developed their own procedures for conducting assessments of risk, CAS maturity, and contractor past performance; however, these procedures are not complete and differ among field offices. We concluded that differences among these procedures affect NNSA's understanding at the enterprise level of how oversight is conducted. For example, when field offices use different procedures for assessing CAS maturity, it is difficult to compare the maturity of these systems.    Third, NNSA no longer uses the process it established in 2011 policy to review the effectiveness of oversight approaches in place at each contractor site and field office, including how CAS is being used for oversight. This process was discontinued after the Y-12 security incident and has not been replaced, in essence eliminating the one process NNSA had that would have allowed the agency to determine whether oversight approaches are consistently applied.    Regarding WIPP, our preliminary observations on oversight of WIPP underscore the importance of having clear guidance on when and how to rely on contractor information for oversight. Notably, according to DOE's Accident Investigation Board report, NNSA's Los Alamos field office, responsible for overseeing waste packaging, was over-reliant on CAS for environmental compliance oversight and that this reliance was not consistent with an NNSA review that observed CAS was still maturing.    Thank you again for having me today. I look forward to responding to your questions.</t>
   </si>
   <si>
@@ -139,9 +118,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman, for letting me, you know, go a little late here.    Today's hearing obviously focuses on oversight failures at the Department of Energy's Waste Isolation Pilot Plant, or WIPP. And the incidents there raise broader questions about how to conduct effective oversight across the DOE and NNSA Nuclear Complex.    On this committee, there has long been bipartisan support for congressional oversight to ensure that DOE is effectively managing its contractors and keeping the nuclear complex safe. And DOE and NNSA have shown repeatedly that our continued oversight is needed.    For nearly two decades now, this committee, GAO, and DOE's inspector general have identified a wide array of safety and security issues facing DOE at NNSA sites. I was going to mention them. Some of them, perhaps all of them, have already been mentioned, but I did want to mention again.    In 2004, Los Alamos National Laboratory suspended operations after a student was partially blinded in a laser accident and classified information went missing. In 2006, a drug raid in a mobile-home park found a large number of classified documents that had been removed from an NNSA lab. In 2007, a GAO report revealed that NNSA weapons laboratory workers had faced nearly 60 serious accidents or near misses over the previous 7 years. In 2008, GAO found security and protection of weapons-grade nuclear material severely lacking at Lawrence Livermore National Laboratory due in part to NNSA's deficient oversight. And then, in 2012, three trespassers managed to gain access to a secure area directly adjacent to some of the Nation's critically important weapon-related facilities at Y-12 National Security Complex in Oak Ridge, Tennessee.    This committee has held a number of hearings on these topics to understand what went wrong and what DOE and NNSA were doing to ensure this didn't happen again in the future. But now we find ourselves dealing with today's topic, which has been mentioned already, in February 2014, when WIPP experienced both an underground truck fire and a radiological release from a nuclear waste drum within a 9-day period, and operations at WIPP were subsequently shut down. The facility obviously has not reopened, and it may cost over half a billion dollars to make it fully operational again.    I just think it is an alarming record. The DOE and NNSA facilities guard some of the Nation's most dangerous nuclear materials, and for too long the DOE and NNSA have allowed mismanagement and oversight failures to continue, and we need answers today about how that will change.    Effective contractor oversight is a key component of those changes. DOE and NNSA rely heavily on contractors to carry out their missions' activities. In 2010, DOE changed its system for contractor oversight to be more hands off, and they planned to rely on the contractor assurance systems developed by the contractors themselves to catch problems and provide data for Federal oversight efforts.    In our 2012 hearing on the Y-12 incident, the committee concluded that DOE and NNSA needed to do a better job of overseeing their contractors. Yet here we are today with recent documentation from GAO and DOE's own accident investigation boards that contractor assurance systems across the DOE and NNSA complex may not be capable of identifying risks and weaknesses.    Obviously, we have heard the GAO, and I hope to hear concrete plans from DOE and NNSA for amending their systems for contractor oversight.    I just want to close by talking about how many billions of dollars we have spent to fix these repeated problems across the DOE. DOE's Office of Environmental Management and NNSA have been on GAO's high-risk list for a long time, largely due to their struggles to stay within cost and schedule estimates for most major projects.    Regarding what happened at WIPP, NNSA's written testimony today says, and I quote, ``The release, which was subsequently determined to have been avoidable, will be costly to fix and has left us without a transuranic waste repository for an indeterminate period of time,'' unquote.    The bottom line here is that, when these projects go off the rails, taxpayer dollars are at risk, and so are important projects that national security depends on. We need to make sure taxpayers' money is spent more wisely.    And I want to thank our witnesses and this panel.    You know, the committee spent decades doing oversight on these issues. Both of our chairmen and our Ranking Member DeGette have been involved in this for a long time, and we do intend to keep a close eye as we move forward. Thank you.</t>
   </si>
   <si>
@@ -151,9 +127,6 @@
     <t xml:space="preserve">    Mr. Murphy. Thank you.    The gentleman yields back.    I now recognize myself for 5 minutes of questions.    First of all, Mr. Wyka, you ran the Accident Investigation Board and determined that the radiological incident was preventable. Am I correct?</t>
   </si>
   <si>
-    <t>Wyka</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wyka. Yes, sir.</t>
   </si>
   <si>
@@ -400,9 +373,6 @@
     <t>412427</t>
   </si>
   <si>
-    <t>Larry Bucshon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bucshon. Thank you, Mr. Chairman.    Again, this is another instance, I think, that maybe a lot of good people are put in a bad spot. And I appreciate all your testimony and what you are trying to do to improve the situation.    From your testimony, Ms. Bawden, it appears that the oversight framework shifts from one administration to the other. This is not a criticism of any administration in general. My concern is that come a new administration, whomever that may be, that somebody may want to develop a whole new approach to oversight.    I fully understand that political appointees carry out policy issues of whatever administration is in place. However, it seems to me on critical issues like this that maybe there needs to be people in charge that span administrations, that don't have the ability to change policy every time something changes. That doesn't make any sense to me.    And the reason I say this, because across the Government what happens is agencies wait you out. If the agency itself, as a whole, doesn't like what you are trying to do, they just wait you out until the next people come, and they sustain a problem that just keeps happening.    You have heard from many of the members who have been on this subcommittee for years, maybe decades, that this is a recurring theme. It is going continue to recur. We are going to be here probably 2 or 3 years from now, and people in your positions, who are from the next administration, are going to be, unfortunately, put in front of us trying to explain what an agency has been doing, literally, for decades that you can't change, and that is unfortunate.    So, Ms. Bawden, do you think this is wise, this is a wise way to run something as critical as this? I mean, is this wise?</t>
   </si>
   <si>
@@ -457,9 +427,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you.    Continuing a bit on that line of questioning, I am a former U.S. Attorney, and so I have led a Federal office where career prosecutors and career other staff, obviously, are there day in and day out through administrations, and different priorities come from different administrations and different leadership styles and so forth.    But I think that because those of you who are the career, Mr. Whitney and Mr. Wyka, both career people, this is a bit of an opportunity for you to--and because I think other people of this panel--I am new to this committee, so I have not been here time and time again asking these questions like our chair and our ranking member have been. And I think this is a great opportunity for you to share with us what you would like to see happen in the best-case scenario, what are the improvements that you believe need to be made.    For instance, looking at GAO's report and seeing what their recommendations have been and seeing that we just cannot seem to get this right, site after site and different sites, and I appreciate, Ms. Creedon, that you are spending days at each site now each quarter, but, yet, when you leave someday, how will that be institutionalized? And so while you might be really moving it in the right direction, how will we get to it being so systematic and so institutionalized that the oversight of this most critical infrastructure in our country is not left to random changes in how the oversight is conducted?    And so I would really like to hear from the career folks what you would like to see improved and what policies you would like to see in place with respect to the contractor oversight or whether or not there should be more direct oversight. And so I would like to get your thoughts in my now 2 \\1/2\\ minutes left from both of you what your--and not that I don't appreciate what the others have to say, but this is an opportunity for career folks to tell us what needs to be fixed and how do we make sure these things don't happen again. What is it?    Mr. Whitney, start with you, and then Mr. Wyka.</t>
   </si>
   <si>
@@ -499,9 +466,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    I am new to this committee and shocked, I guess would be a good word, from what I am hearing. I come from the private sector. I am an ISO guy. I am an ISO 13485, my biotech. I run a select agent operation. We deal with all the bioterrorism agents. I deal with anthrax. We inactivate it. We make sure it is inactivated. My folks wear spacesuits. We have double airlocks. We don't make mistakes.    Why don't we make mistakes? Because we have people in charge who know what they are doing. Clearly, that can't be said for your agency.    Now, let me just state a fact: You can't defend the indefensible. But would any of you like to try, or should we move on?    So the next question is, who was fired over this, and how many people?</t>
   </si>
   <si>
@@ -589,9 +553,6 @@
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman.    I would like to talk about the effectiveness of DOE's oversight across various sites of the nuclear security complex and the reliability of related contractor assurance programs. Is it safe to say that the WIPP accident investigations prove that the Federal oversight and the contractor assurance systems were ineffective at WIPP and at LANL? The Y-12 security breach also demonstrated the ineffectiveness of oversight and contractor assurance.    For both our DOE witnesses, what do you know about the contractor assurance systems at the other nuclear weapons research facilities and cleanup sites? Are there any that you can point to that we can rightly say are effective for DOE oversight purposes?</t>
   </si>
   <si>
@@ -656,9 +617,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Now we welcome and recognize Mr. Lujan for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Lujan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lujan. Mr. Chairman, thank you so very much. And I really appreciate, Mr. Chairman, you and the ranking member bringing us together for this important hearing pertaining to the Waste Isolation Pilot Plant and Los Alamos National Laboratory EM, as well as the NNSA.    Mr. Whitney, as we work on these issues, I think it is important to remember that in executing the mission of these projects, as well as to Ms. Creedon, that we also work with these local communities. And, Mr. Whitney, are you committed to engaging and involving the surrounding local community in the prioritization and procurement of environmental cleanup efforts at Los Alamos National Laboratory?</t>
@@ -1111,11 +1069,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1137,11 +1093,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1161,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1189,11 +1141,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1213,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1239,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1267,11 +1213,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1291,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1319,11 +1261,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1343,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1371,11 +1309,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1397,11 +1333,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1421,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1449,11 +1381,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1473,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1501,11 +1429,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1525,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1553,11 +1477,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1577,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1603,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1631,11 +1549,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1655,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1683,11 +1597,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1707,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1735,11 +1645,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1759,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1787,11 +1693,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1811,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1839,11 +1741,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1863,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1891,11 +1789,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1915,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1943,11 +1837,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1967,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1993,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2021,11 +1909,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2045,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2073,11 +1957,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2097,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2125,11 +2005,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2149,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2177,11 +2053,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2201,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2227,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2253,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2279,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2305,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2331,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2357,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2383,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2409,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2435,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2461,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2487,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2513,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2539,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2565,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2591,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2617,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2643,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2669,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2695,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2721,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2747,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2773,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2799,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2825,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2851,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2877,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2903,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2929,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2955,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2981,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3007,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3033,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3059,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3085,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3111,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3137,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3163,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3189,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3215,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3241,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3267,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3295,11 +3085,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3319,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3345,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3371,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3397,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3423,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3449,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
-      </c>
-      <c r="G92" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3475,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3501,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3527,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3553,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
-      </c>
-      <c r="G96" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3579,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3607,11 +3373,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3631,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
-      </c>
-      <c r="G99" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3657,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3683,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
-      </c>
-      <c r="G101" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3709,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
-      </c>
-      <c r="G102" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3735,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
-      </c>
-      <c r="G103" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3761,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
-      </c>
-      <c r="G104" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3787,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
-      </c>
-      <c r="G105" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3813,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
-      </c>
-      <c r="G106" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3839,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
-      </c>
-      <c r="G107" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3865,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
-      </c>
-      <c r="G108" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3891,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
-      </c>
-      <c r="G109" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3917,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
-      </c>
-      <c r="G110" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3943,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
-      </c>
-      <c r="G111" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3969,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3995,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
-      </c>
-      <c r="G113" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4021,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
-      </c>
-      <c r="G114" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4047,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
-      </c>
-      <c r="G115" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4075,11 +3805,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4099,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>127</v>
-      </c>
-      <c r="G117" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4125,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
-      </c>
-      <c r="G118" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4151,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>127</v>
-      </c>
-      <c r="G119" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4177,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
-      </c>
-      <c r="G120" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4203,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>127</v>
-      </c>
-      <c r="G121" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4229,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4255,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>127</v>
-      </c>
-      <c r="G123" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4281,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
-      </c>
-      <c r="G124" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4307,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
+        <v>118</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
         <v>127</v>
-      </c>
-      <c r="G125" t="s">
-        <v>128</v>
-      </c>
-      <c r="H125" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4333,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
-      </c>
-      <c r="G126" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4359,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>127</v>
-      </c>
-      <c r="G127" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4385,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4411,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>127</v>
-      </c>
-      <c r="G129" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4437,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
-      </c>
-      <c r="G130" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4463,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>127</v>
-      </c>
-      <c r="G131" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4489,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>127</v>
-      </c>
-      <c r="G132" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4517,11 +4213,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4541,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>146</v>
-      </c>
-      <c r="G134" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4567,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
-      </c>
-      <c r="G135" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4593,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>146</v>
-      </c>
-      <c r="G136" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4619,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
-      </c>
-      <c r="G137" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4645,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>146</v>
-      </c>
-      <c r="G138" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4671,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
-      </c>
-      <c r="G139" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4697,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>146</v>
-      </c>
-      <c r="G140" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4723,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
-      </c>
-      <c r="G141" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4749,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>146</v>
-      </c>
-      <c r="G142" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4775,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
-      </c>
-      <c r="G143" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4801,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>146</v>
-      </c>
-      <c r="G144" t="s">
+        <v>136</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
         <v>147</v>
-      </c>
-      <c r="H144" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4829,11 +4501,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4853,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>160</v>
-      </c>
-      <c r="G146" t="s">
-        <v>161</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4879,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
-      </c>
-      <c r="G147" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4905,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>160</v>
-      </c>
-      <c r="G148" t="s">
-        <v>161</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4931,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
-      </c>
-      <c r="G149" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4957,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>160</v>
-      </c>
-      <c r="G150" t="s">
-        <v>161</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4983,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
-      </c>
-      <c r="G151" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5009,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>160</v>
-      </c>
-      <c r="G152" t="s">
-        <v>161</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5035,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
-      </c>
-      <c r="G153" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5061,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>160</v>
-      </c>
-      <c r="G154" t="s">
-        <v>161</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5087,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
-      </c>
-      <c r="G155" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5113,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
+        <v>149</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
         <v>160</v>
-      </c>
-      <c r="G156" t="s">
-        <v>161</v>
-      </c>
-      <c r="H156" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5139,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
-      </c>
-      <c r="G157" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5165,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>160</v>
-      </c>
-      <c r="G158" t="s">
-        <v>161</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5191,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
-      </c>
-      <c r="G159" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5217,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>160</v>
-      </c>
-      <c r="G160" t="s">
-        <v>161</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5243,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
-      </c>
-      <c r="G161" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5269,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>160</v>
-      </c>
-      <c r="G162" t="s">
-        <v>161</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5297,11 +4933,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5321,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
-      </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5349,11 +4981,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5373,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
-      </c>
-      <c r="G166" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5401,11 +5029,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5425,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
-      </c>
-      <c r="G168" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5453,11 +5077,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5477,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
-      </c>
-      <c r="G170" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5505,11 +5125,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5529,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
-      </c>
-      <c r="G172" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5557,11 +5173,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5581,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>190</v>
-      </c>
-      <c r="G174" t="s">
-        <v>191</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5607,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
-      </c>
-      <c r="G175" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5633,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
-      </c>
-      <c r="G176" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5659,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>190</v>
-      </c>
-      <c r="G177" t="s">
-        <v>191</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5685,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
-      </c>
-      <c r="G178" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5711,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>190</v>
-      </c>
-      <c r="G179" t="s">
-        <v>191</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5737,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
-      </c>
-      <c r="G180" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5763,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>190</v>
-      </c>
-      <c r="G181" t="s">
-        <v>191</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5789,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
-      </c>
-      <c r="G182" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5815,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>190</v>
-      </c>
-      <c r="G183" t="s">
-        <v>191</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5841,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
-      </c>
-      <c r="G184" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5867,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
+        <v>178</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
         <v>190</v>
-      </c>
-      <c r="G185" t="s">
-        <v>191</v>
-      </c>
-      <c r="H185" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5893,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
-      </c>
-      <c r="G186" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5919,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>190</v>
-      </c>
-      <c r="G187" t="s">
-        <v>191</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5945,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
-      </c>
-      <c r="G188" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5971,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>190</v>
-      </c>
-      <c r="G189" t="s">
-        <v>191</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5997,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
-      </c>
-      <c r="G190" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6023,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>190</v>
-      </c>
-      <c r="G191" t="s">
-        <v>191</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6049,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
-      </c>
-      <c r="G192" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6075,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>190</v>
-      </c>
-      <c r="G193" t="s">
-        <v>191</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6101,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
-      </c>
-      <c r="G194" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6127,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>190</v>
-      </c>
-      <c r="G195" t="s">
-        <v>191</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6155,11 +5725,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6179,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
-      </c>
-      <c r="G197" t="s">
-        <v>214</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6205,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
-      </c>
-      <c r="G198" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6231,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
-      </c>
-      <c r="G199" t="s">
-        <v>214</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6257,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
-      </c>
-      <c r="G200" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6283,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
-      </c>
-      <c r="G201" t="s">
-        <v>214</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6309,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
-      </c>
-      <c r="G202" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6335,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
-      </c>
-      <c r="G203" t="s">
-        <v>214</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6361,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
-      </c>
-      <c r="G204" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6387,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
-      </c>
-      <c r="G205" t="s">
-        <v>214</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6413,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
-      </c>
-      <c r="G206" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6439,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
-      </c>
-      <c r="G207" t="s">
-        <v>214</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6465,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>30</v>
-      </c>
-      <c r="G208" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6491,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
-      </c>
-      <c r="G209" t="s">
-        <v>214</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6519,11 +6061,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6543,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>15</v>
-      </c>
-      <c r="G211" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6571,11 +6109,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6595,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
-      </c>
-      <c r="G213" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6623,11 +6157,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6649,11 +6181,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97612.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97612.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murphy. All right. Good morning. I apologize for the delay, but we are here now. This is the hearing on the ``Oversight Failures Behind the Radiological Incident at DOE's Waste Isolation Pilot Plant.''    Today we will review a costly series of oversight failures at two important Department of Energy sites. These failures contributed to a radiological leak last year at one of the sites, the Waste Isolation Pilot Plant, known as WIPP, which serves to dispose in mined salt caverns certain types of radiological waste from our Nation's nuclear weapons programs.    This leak, along with a separate truck fire the week before, exposed management and oversight shortcomings both at WIPP and at one of the Nation's premier national laboratories, the Los Alamos National Laboratory. Los Alamos, it turns out, was the source of the radiological material and the errors that caused a reaction in the material that burst a container in WIPP's underground facility.    Since the incident, WIPP has been shut down, and the Department has embarked on remediation, training, and rebuilding that will cost taxpayers an estimated $240 million just to restart limited operations next year. All told, it may ultimately cost more than $500 million before full operations are estimated to commence in 2018, and there are reports of DOE fines or settlements of some $73 million.    This was no small oversight failure, and the issues we will examine today raise broader questions about the state of the Department's oversight framework for operations and its various cleanup at nuclear sites.    The root cause of the radiological incident was established in a DOE report this past April. Basically, hundreds of containers were inappropriately packaged for WIPP disposal by workers at Los Alamos. They packaged waste mixtures with organic absorbants, which created reactive and ignitable waste forms.    The specific culprit was off-the-shelf organic kitty litter, and the use of this organic material was traced to someone writing down ``organic'' instead of ``inorganic''--a simple human error. But this is more than what happens when you don't pay attention in high school chemistry and spelling classes. This failure to catch an error reflected a much larger systemic failure.    Two years before the incident, Los Alamos actually stopped work that had been mixing waste with organics precisely because of the reactivity and ignition risks. The lab's so-called Difficult Waste Team, along with Federal site officials, directed a safety process change that would use inorganics as absorbants.    The problem was, over the next year and a half, no one in management or among Federal overseers made sure the new procedures were followed, so what they thought was fixed wasn't. And no one in management or at the Federal level reviewed the process to determine why workers had been creating dangerous mixtures in the first place--a basic practice of an effective safety system.    As the Los Alamos Lab's own review noted, the fact that so many critical management, safety, and oversight mechanisms all failed simultaneously over an extended period of time are of significant concern.    Also of significant concern are patterns of oversight failure found to have occurred at the WIPP site. For example, at WIPP, both the contractor and Feds failed to identify or fix shortcomings in equipment and degraded conditions in the mine over a period of years. These errors led to the environmental release and added tens of millions to the cost of recovery operations.    The failures at these sites contribute to a long story of DOE struggles to conduct adequate oversight of its management and operating contractors, which are responsible for much of the core activities of the Department.    Just over 2 years ago, DOE and National Nuclear Security Administration, NNSA, officials came before this committee to explain security failures at the Y-12 National Security Site in Tennessee. The failures were notoriously exposed when several elderly peace activists penetrated the security perimeter of the most secure section of the site.    What was clear from that incident sounds very familiar today: What the Feds thought was working wasn't. Site officials trusted that contractors were doing what they were supposed to do without checking. Federal line oversight had failed.    We were told then that the successful reliance on department contractors depends on strong and clear lines of accountability and on meaningful and consistent measurement of contractor performance. We were promised that actions would be taken to address the shortcomings. Yet we have again learned from GAO that the DOE and NNSA have yet to make significant progress to make the necessary reforms with regard to measurement of contractor performance, and this is not acceptable.    Today we will hear from department officials and the GAO, all of whom can explain the costly oversight failures at WIPP and Los Alamos, what is being done, and what must be done to fix these problems at the sites and across the complex. I hope this hearing helps to identify what is necessary for DOE to develop an oversight system that can effectively identify, address safety issues and security issues before they become costly mistakes.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400101</t>
   </si>
   <si>
+    <t>DeGette</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you very much, Mr. Chairman.    And, again, I want to thank you for your comity in holding the hearing till I got here. As you know, the President was briefing the Democratic caucus, and I felt like I owed him to listen to what he had to say.    And I am particularly glad you waited for me because when I heard your opening statement it was deja vu all over again to me, because I have been on this O&amp;I panel for most, if not all, of the incidents that you discussed.    We have had over a dozen hearings since I have been here to examine oversight failures and contractor mismanagement at the DOE NNSA Nuclear Complex. A perusal of the GAO testimony today reveals a string of mishaps and management failures over the last decade involving these sites. And that is why, for years, DOE and NNSA have remained on the agency's high-risk list for Federal programs highly susceptible to mismanagement and waste.    The problems have been costly and disruptive. For example, in 2004, which was over a decade ago, there were so many incidents at Los Alamos that the lab director shut down the entire facility for several weeks to address them. A few years later, at a hearing on lab security, our beloved chairman emeritus, John Dingell, observed, quote, ``I feel a little bit like this is the movie 'Groundhog Day.' For some reason or another, DOE has proven itself incapable of managing this critical security and preventing recurring problems.'' That was in 2007.    Now, as you mentioned, in July 2012, the DOE NNSA complex was in the news again because these protestors with basic tools managed to cut the fence at Y-12 and gain access to the area surrounding a highly enriched uranium storage facility. This was supposed to be one of the most secure facilities in the country, but, as you said, a small group of aging activists, including an 82-year-old nun, were able to access the compound uninterrupted by security. And if you haven't seen those videos, just watch them. It is chilling.    As I said in a hearing about that incident, without good oversight, serious issues won't be identified and fixed, and the results could be disastrous. I can't think of any reason why we would want to decrease our oversight of these facilities, inhibit the ability of oversight to review site actions, or reduce accountability for those responsible for keeping the nuclear sites safe. That was in 2012.    Now, we quickly learned that the Y-12 fiasco was not an isolated event. Last year, a waste drum packed by a Los Alamos contractor managed to burst open and contaminate the Nation's only transuranic waste repository. Called the Waste Isolation Pilot Plant, or WIPP, this facility is supposed to house most of the Nation's low-level, cold-war-generated nuclear waste. This incident resulted in closing the facility perhaps for years. It will also cost the taxpayer millions of dollars to clean up.    In the last several decades, we have seen the DOE use a range of strategies to oversee their contractors. And I do want to say I think the DOE has made some efforts. After concerns that hands-on oversight was burdensome and ineffective, DOE and NNSA adopted a less intrusive oversight strategy. The new model, which had reliance on contractor assurance systems, was supposed to let contractors assess performance and provide data for Federal oversight efforts.    Nonetheless, since the implementation of this strategy 5 years ago, we continue to have incidents that make me question this approach. I mentioned the security incident at Y-12. Y-12 was one of the first facilities NNSA affirmed as having in place an effective and mature contractor assurance system capable of identifying risks and weaknesses. But this system failed, and the committee had several hearings to see what went wrong. We received assurances from the DOE that they had learned lessons from the past and were committed to implementing the new management and performance measures. Nonetheless, the more recent incidents involving WIPP suggest this oversight framework is not where it needs to be.    So where are we now? I think it is safe to say this new oversight framework needs major retooling. Mr. Chairman, I don't know if we are back to square one. I certainly hope we are not. But, at a minimum, we need to establish a clear path forward. I hope DOE and NNSA will share some ideas so they can actually make progress in implementing the new framework. If excessive transactional oversight is not the answer and reliance on a contractor assurance system is not the answer, then what is the answer?    And we need to figure this out pronto, Mr. Chairman, not just because of these two incidents but because the missions at NNSA sites are critical to our Nation's security.    In response to the GAO report, NNSA outlined plans for a new corporate policy that will form a comprehensive framework for a contractor assurance system. I don't even know what that means, Mr. Chairman, but I hope we can get some answers today about how that new policy will result in significant and effective changes at the agency.    We have been going in circles, and we have to stop doing that. So I hope we can see some changes come out of the WIPP accident investigations and GAO's latest report. We are going to be vigilant, but I have to be honest, I am not overly optimistic.    Thanks, and I yield back.</t>
   </si>
   <si>
@@ -70,12 +85,24 @@
     <t>400032</t>
   </si>
   <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Marsha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman.    And I am not going to take 5 minutes, and I will yield the time to whomever would like it. But I am going to pick up right where Ms. DeGette left off, talking about Y-12.    And as we conducted that hearing and the assurances that we were given that things were going to be more closely watched, and now we find ourselves, as Chairman Murphy said, looking at a hearing where someone either wasn't paying attention in spelling class or science class or didn't know the difference and went on to inappropriately use an organic kitty litter.    The problem for us is, not only is this expensive--you are talking about $551 billion being the estimate to clean this up, to clean it up, and to get the facility operational--you also look at the impact that this has on nuclear-generated power and on storing that waste.    And in Tennessee, where Y-12 is located--and I was up at Oak Ridge the week before last and over at TVA and out at the Watts Bar Plant. And the safe storage of that nuclear waste, as we bring the second Watts Bar reactor on line--it is about 95 percent complete right now--this is something of tremendous concern.    So we are looking for answers. And I think, more than just answers, we are looking for responsible action and a way to solve this so that best practices and protocols are in place and we are not finding ourselves back at a hearing saying, well, we learned a lesson, but we really didn't learn a lesson, and we took no actions from the lesson we were supposed to learn.    With that, Mr. Chairman, I will yield to the gentleman from Texas.</t>
   </si>
   <si>
     <t>400052</t>
   </si>
   <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Burgess. I thank the gentlelady for yielding.    I have been on this subcommittee for over 10 years now. This has been a recurrent theme that comes up over and over again. So I want to echo what other members have said, that it is important to get this right and to get this solved. We are talking about the Nation's nuclear secrets. This should be the most closely guarded and where the greatest attention to detail should be placed to security issues, and we keep having to come here and discuss breaches.    I do want to acknowledge the help of the Government Accountability Office and, in particular, Allison Bawden, who is one of our witnesses today, who has been enormously helpful to our staff through this and other issues.    And, Mr. Chairman, I will yield back the balance of my time.</t>
   </si>
   <si>
@@ -97,18 +124,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Creedon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Creedon. Thank you, Mr. Chairman, Ranking Member DeGette, and members of the subcommittee. I want to thank you for the opportunity today to discuss the radiological release at the Waste Isolation Pilot Plant, or WIPP.    I am pleased to be joined today by Mark Whitney, the Acting Assistant Secretary of Energy for Environmental Management. We have provided written testimony to the subcommittee and respectfully ask that it be submitted for the record.    On February 14, 2014, a radiological release occurred in the Waste Isolation Pilot Plant in New Mexico when a drum, which had been shipped from Los Alamos National Laboratory, experienced an exothermic reaction that led to overpressurization and breach, causing a release of a portion of the drum's contents.    The specifics of this radiological release at WIPP and the subsequent restart activities will be addressed by Mr. Whitney.    While the Department of Energy's National Nuclear Security Administration, NNSA, holds the overall management and operating contract for the Los Alamos National Laboratory, the Department of Energy's Office of Environmental Management is the program lead for legacy waste cleanup activities performed at LANL and for the operation of WIPP. NNSA is, however, responsible for the overall site operations.    That said, I want to assure you all that all of us at DOE take this unintentional release of radioactive material very seriously, as we do all significant events.    What is most troublesome about this event is that, as the accident investigation determined, it was preventable. It will also be costly to fix and has left us without a true waste repository for an indeterminate period of time. And this is simply unacceptable.    Today I will focus on the actions that the NNSA has taken since the event and highlight a few ongoing initiatives we are pursuing to improve the governance and oversight at NNSA sites.    NNSA and the Office of Environmental Management have taken corrective actions in response to the WIPP incident. This includes both long-term and short-term compensatory measures. These measures will address the underlying issues and problems that contributed to the errors in packaging the legacy waste.    NNSA and EM, working with the other components of the Department of Energy, have realigned the Federal program and oversight responsibility for legacy waste materials. The responsibility has been transferred from the local NNSA field office to a newly established environmental management field office.    We have also held our management and operating contractor at the Los Alamos National Laboratory responsible and accountable for their part in allowing conditions to develop that led to this event. The M&amp;O's fee for operating the laboratory was reduced drastically. We did not grant a year of award term, and we took back a year of award term that had previously been awarded. Award term is a year of the contract. So we did not give them an additional year on the contract, and we took back a previously awarded additional year on their contract. We are also in the process of modifying this M&amp;O contract to allow EM to have more direct control over their work at Los Alamos in the near term and then to modify their contracting strategy in the long term.    NNSA is also working on several fronts to improve our overall approach to site governance. We have kicked off two specific initiatives. The first is to examine our contracting strategy to ensure that we incentivize the right behaviors while also holding our labs and sites accountable. The second initiative is to better define the NNSA site governance model, with specific attention to identifying clear expectations regarding contract management and oversight and clarifying the roles and responsibilities between the NNSA field and headquarters elements and, in the case of Los Alamos, the Office of Environmental Management as well.    In conclusion, I want to assure you that the Department understands the seriousness of this event. We have taken numerous concrete and aggressive actions to address the specific events and are also looking at governance generally. These actions will help us ensure that we do not repeat the mistakes that gave rise to this incident and help improve operations across the entire NNSA enterprise.    With that, I thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Mr. Whitney, we will have you go next.</t>
   </si>
   <si>
+    <t>Whitney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whitney. Thank you, Mr. Chairman, Ranking Member DeGette, and distinguished members of the subcommittee. Thank you for the opportunity to share our commitment and vision on the Department of Energy's ongoing recovery of the Waste Isolation Pilot Plant.    Safe performance of work is our overriding priority, and the Department's first responsibility is to protect the workers, the public, and the environment. Safety first is the clear expectation behind all of our decisions and our activities. The Secretary and I continue to set the expectation for the EM workforce that safety is integral to accomplishing the mission.    WIPP's primary mission is to safely and permanently dispose of the Nation's defense-related transuranic waste, which is a byproduct of nuclear weapons research and production, facility dismantlement, and site cleanup.    On February 5, 2014, a vehicle used to transport salt caught fire in the WIPP underground. Workers were safely evacuated, and the underground portion of WIPP was shut down, but the fire resulted in minor smoke inhalation to six workers. It did not adversely, however, impact the public or the environment.    On February 14, 2014, a second unrelated event occurred when an air monitor measured airborne radioactivity close to the location where waste was being emplaced. No employees were underground at the time. The next day, low levels of airborne radioactive contamination were detected, the result of when a small amount of radioactivity leaked by the exhaust duct dampers through the unfiltered exhaust ducts and escaped aboveground.    As a result of these events, the WIPP repository is shut down and is currently not accepting waste shipments.    The Department established an Accident Investigation Board to fully investigate the event and understand the causes and factors that contributed to the radiological release. The AIB identified direct causes, root causes, and contributing causes to the radiological release.    While the investigation focused on the activities that contributed to the breached drum in the WIPP underground, the conclusions and analyses represent an opportunity to assess and benchmark all of our operations and apply lessons learned across the EM complex.    We have made considerable progress towards safely recovering WIPP over the last 16 months, including the immediate response to the incidents, our investigation to the incidents, the development of corrective action plans, and the issuance and implementation of the WIPP recovery plan.    We are strengthening safety management programs such as nuclear safety, fire protection, emergency management, and radiological control, reestablishing a bounding safety envelope, and responding to all of our oversight organizations' concerns.    Underground entries were necessarily limited in the weeks following the incidents, but they are now safely performed daily. Restoration of the underground includes radiological surveys, radiological buffers in noncontaminated areas, ground control stability inspections, roof bolting, and equipment maintenance.    Work is being performed also safely in contaminated areas. Adequate ventilation is required, however, for habitability of the underground, including dust removal during mining and removal of exhaust fumes during diesel engine operations. Increasing ventilation capacity is a principal requirement for the safe underground operations, and our plan is to increase ventilation over the next year to support resumption of operations and ultimately to increase the airflow back to pre-incident rates, although that will take several years.    EM has worked diligently to improve oversight at the headquarters and field level. To ensure continued health and safety to the workers, the public, and the environment, the Department must provide effective, comprehensive oversight of work at every phase and level. EM is committed to strengthening Federal and contractor oversight competencies. Many of these actions have already been implemented.    In summary, WIPP is an important national resource that we are working hard to recover. DOE will resume disposal operations at WIPP but only when it is safe to do so. The safety of workers, the public, and the environment is first and foremost. And we continue to keep the community and stakeholders, including Congress, informed of WIPP recovery in a transparent manner.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Mr. Wyka, we understand you are not testifying today but you are going to be available to answer questions. Thank you.    Ms. Bawden, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Bawden</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bawden. Chairman Murphy, Ranking Member DeGette, and members of the subcommittee, thank you for inviting me today to discuss GAO's report on the framework established by the Department of Energy and its National Nuclear Security Administration for overseeing management and operating contractors. These M&amp;O contractors are trusted by the Government to achieve some of its most sensitive national security missions.    GAO has reported for decades on the management challenges DOE faces for contract administration and oversight. My testimony today highlights three findings from GAO's recently completed work on NNSA's framework for overseeing its M&amp;O contractors, as well as preliminary observations from GAO's ongoing work that includes examining oversight of WIPP.    These findings from our work and the parallels drawn to oversight of WIPP are particularly important in light of two competing narratives about DOE oversight of M&amp;O contractors.    On the one hand, there are the series of safety and security incidents on which GAO and others have reported for years. Many of these incidents have indicated the need for better oversight, such as the 2012 security incident at Y-12, 2008 security performance issues at Livermore, and safety and security performance issues at Los Alamos in 2004 and 2006.    On the other hand, there is discussion of Federal micromanagement of M&amp;O contractors and excessive and burdensome requirements that affect productivity.    DOE's current oversight framework, which was established in 2011 to bridge these two narratives, requires M&amp;O contractors to develop assurance systems, or CAS, that provide data to help contractors drive continuous improvement in their operations and that can be leveraged, when appropriate, to improve the efficiency of Federal oversight by relying on the contractor-generated information from CAS.    A 2011 NNSA policy elaborates on DOE's framework by identifying assessments Federal overseers should conduct to determine when it is appropriate to leverage CAS for oversight. These are: the risk of an activity, the maturity of the contractor's CAS or a way of thinking about the reliability of the information provided by the contractor systems, and the contractor's past performance.    NNSA's policy describes balancing the oversight approaches that can result from these assessments. On one side is transaction-based oversight or direct oversight, such as inspections and performance testing, particularly for high-risk or high-hazard activities. And on the other side is system-based oversight, where NNSA can rely on contractor-generated information it receives from contractor systems.    In our recently completed work regarding NNSA's implementation of the framework for overseeing M&amp;O contractors, we found the following:    First, NNSA has not fully established policy or guidance for implementing its framework to oversee M&amp;O contractors. Specifically, at the headquarters level, NNSA does not have guidance to fully support conducting the three assessments required by its policy. While NNSA has some guidance for assessing risk, it has no policy or guidance for assessing the maturity of CAS or for evaluating past performance. We concluded that, without this policy or guidance, oversight approaches could over-rely or under-rely on information from     Second, NNSA field offices have developed their own procedures for conducting assessments of risk, CAS maturity, and contractor past performance; however, these procedures are not complete and differ among field offices. We concluded that differences among these procedures affect NNSA's understanding at the enterprise level of how oversight is conducted. For example, when field offices use different procedures for assessing CAS maturity, it is difficult to compare the maturity of these systems.    Third, NNSA no longer uses the process it established in 2011 policy to review the effectiveness of oversight approaches in place at each contractor site and field office, including how CAS is being used for oversight. This process was discontinued after the Y-12 security incident and has not been replaced, in essence eliminating the one process NNSA had that would have allowed the agency to determine whether oversight approaches are consistently applied.    Regarding WIPP, our preliminary observations on oversight of WIPP underscore the importance of having clear guidance on when and how to rely on contractor information for oversight. Notably, according to DOE's Accident Investigation Board report, NNSA's Los Alamos field office, responsible for overseeing waste packaging, was over-reliant on CAS for environmental compliance oversight and that this reliance was not consistent with an NNSA review that observed CAS was still maturing.    Thank you again for having me today. I look forward to responding to your questions.</t>
   </si>
   <si>
@@ -118,6 +154,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman, for letting me, you know, go a little late here.    Today's hearing obviously focuses on oversight failures at the Department of Energy's Waste Isolation Pilot Plant, or WIPP. And the incidents there raise broader questions about how to conduct effective oversight across the DOE and NNSA Nuclear Complex.    On this committee, there has long been bipartisan support for congressional oversight to ensure that DOE is effectively managing its contractors and keeping the nuclear complex safe. And DOE and NNSA have shown repeatedly that our continued oversight is needed.    For nearly two decades now, this committee, GAO, and DOE's inspector general have identified a wide array of safety and security issues facing DOE at NNSA sites. I was going to mention them. Some of them, perhaps all of them, have already been mentioned, but I did want to mention again.    In 2004, Los Alamos National Laboratory suspended operations after a student was partially blinded in a laser accident and classified information went missing. In 2006, a drug raid in a mobile-home park found a large number of classified documents that had been removed from an NNSA lab. In 2007, a GAO report revealed that NNSA weapons laboratory workers had faced nearly 60 serious accidents or near misses over the previous 7 years. In 2008, GAO found security and protection of weapons-grade nuclear material severely lacking at Lawrence Livermore National Laboratory due in part to NNSA's deficient oversight. And then, in 2012, three trespassers managed to gain access to a secure area directly adjacent to some of the Nation's critically important weapon-related facilities at Y-12 National Security Complex in Oak Ridge, Tennessee.    This committee has held a number of hearings on these topics to understand what went wrong and what DOE and NNSA were doing to ensure this didn't happen again in the future. But now we find ourselves dealing with today's topic, which has been mentioned already, in February 2014, when WIPP experienced both an underground truck fire and a radiological release from a nuclear waste drum within a 9-day period, and operations at WIPP were subsequently shut down. The facility obviously has not reopened, and it may cost over half a billion dollars to make it fully operational again.    I just think it is an alarming record. The DOE and NNSA facilities guard some of the Nation's most dangerous nuclear materials, and for too long the DOE and NNSA have allowed mismanagement and oversight failures to continue, and we need answers today about how that will change.    Effective contractor oversight is a key component of those changes. DOE and NNSA rely heavily on contractors to carry out their missions' activities. In 2010, DOE changed its system for contractor oversight to be more hands off, and they planned to rely on the contractor assurance systems developed by the contractors themselves to catch problems and provide data for Federal oversight efforts.    In our 2012 hearing on the Y-12 incident, the committee concluded that DOE and NNSA needed to do a better job of overseeing their contractors. Yet here we are today with recent documentation from GAO and DOE's own accident investigation boards that contractor assurance systems across the DOE and NNSA complex may not be capable of identifying risks and weaknesses.    Obviously, we have heard the GAO, and I hope to hear concrete plans from DOE and NNSA for amending their systems for contractor oversight.    I just want to close by talking about how many billions of dollars we have spent to fix these repeated problems across the DOE. DOE's Office of Environmental Management and NNSA have been on GAO's high-risk list for a long time, largely due to their struggles to stay within cost and schedule estimates for most major projects.    Regarding what happened at WIPP, NNSA's written testimony today says, and I quote, ``The release, which was subsequently determined to have been avoidable, will be costly to fix and has left us without a transuranic waste repository for an indeterminate period of time,'' unquote.    The bottom line here is that, when these projects go off the rails, taxpayer dollars are at risk, and so are important projects that national security depends on. We need to make sure taxpayers' money is spent more wisely.    And I want to thank our witnesses and this panel.    You know, the committee spent decades doing oversight on these issues. Both of our chairmen and our Ranking Member DeGette have been involved in this for a long time, and we do intend to keep a close eye as we move forward. Thank you.</t>
   </si>
   <si>
@@ -127,6 +169,9 @@
     <t xml:space="preserve">    Mr. Murphy. Thank you.    The gentleman yields back.    I now recognize myself for 5 minutes of questions.    First of all, Mr. Wyka, you ran the Accident Investigation Board and determined that the radiological incident was preventable. Am I correct?</t>
   </si>
   <si>
+    <t>Wyka</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wyka. Yes, sir.</t>
   </si>
   <si>
@@ -373,6 +418,12 @@
     <t>412427</t>
   </si>
   <si>
+    <t>Bucshon</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bucshon. Thank you, Mr. Chairman.    Again, this is another instance, I think, that maybe a lot of good people are put in a bad spot. And I appreciate all your testimony and what you are trying to do to improve the situation.    From your testimony, Ms. Bawden, it appears that the oversight framework shifts from one administration to the other. This is not a criticism of any administration in general. My concern is that come a new administration, whomever that may be, that somebody may want to develop a whole new approach to oversight.    I fully understand that political appointees carry out policy issues of whatever administration is in place. However, it seems to me on critical issues like this that maybe there needs to be people in charge that span administrations, that don't have the ability to change policy every time something changes. That doesn't make any sense to me.    And the reason I say this, because across the Government what happens is agencies wait you out. If the agency itself, as a whole, doesn't like what you are trying to do, they just wait you out until the next people come, and they sustain a problem that just keeps happening.    You have heard from many of the members who have been on this subcommittee for years, maybe decades, that this is a recurring theme. It is going continue to recur. We are going to be here probably 2 or 3 years from now, and people in your positions, who are from the next administration, are going to be, unfortunately, put in front of us trying to explain what an agency has been doing, literally, for decades that you can't change, and that is unfortunate.    So, Ms. Bawden, do you think this is wise, this is a wise way to run something as critical as this? I mean, is this wise?</t>
   </si>
   <si>
@@ -427,6 +478,12 @@
     <t>412539</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you.    Continuing a bit on that line of questioning, I am a former U.S. Attorney, and so I have led a Federal office where career prosecutors and career other staff, obviously, are there day in and day out through administrations, and different priorities come from different administrations and different leadership styles and so forth.    But I think that because those of you who are the career, Mr. Whitney and Mr. Wyka, both career people, this is a bit of an opportunity for you to--and because I think other people of this panel--I am new to this committee, so I have not been here time and time again asking these questions like our chair and our ranking member have been. And I think this is a great opportunity for you to share with us what you would like to see happen in the best-case scenario, what are the improvements that you believe need to be made.    For instance, looking at GAO's report and seeing what their recommendations have been and seeing that we just cannot seem to get this right, site after site and different sites, and I appreciate, Ms. Creedon, that you are spending days at each site now each quarter, but, yet, when you leave someday, how will that be institutionalized? And so while you might be really moving it in the right direction, how will we get to it being so systematic and so institutionalized that the oversight of this most critical infrastructure in our country is not left to random changes in how the oversight is conducted?    And so I would really like to hear from the career folks what you would like to see improved and what policies you would like to see in place with respect to the contractor oversight or whether or not there should be more direct oversight. And so I would like to get your thoughts in my now 2 \\1/2\\ minutes left from both of you what your--and not that I don't appreciate what the others have to say, but this is an opportunity for career folks to tell us what needs to be fixed and how do we make sure these things don't happen again. What is it?    Mr. Whitney, start with you, and then Mr. Wyka.</t>
   </si>
   <si>
@@ -466,6 +523,12 @@
     <t>412563</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    I am new to this committee and shocked, I guess would be a good word, from what I am hearing. I come from the private sector. I am an ISO guy. I am an ISO 13485, my biotech. I run a select agent operation. We deal with all the bioterrorism agents. I deal with anthrax. We inactivate it. We make sure it is inactivated. My folks wear spacesuits. We have double airlocks. We don't make mistakes.    Why don't we make mistakes? Because we have people in charge who know what they are doing. Clearly, that can't be said for your agency.    Now, let me just state a fact: You can't defend the indefensible. But would any of you like to try, or should we move on?    So the next question is, who was fired over this, and how many people?</t>
   </si>
   <si>
@@ -553,6 +616,12 @@
     <t>400653</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman.    I would like to talk about the effectiveness of DOE's oversight across various sites of the nuclear security complex and the reliability of related contractor assurance programs. Is it safe to say that the WIPP accident investigations prove that the Federal oversight and the contractor assurance systems were ineffective at WIPP and at LANL? The Y-12 security breach also demonstrated the ineffectiveness of oversight and contractor assurance.    For both our DOE witnesses, what do you know about the contractor assurance systems at the other nuclear weapons research facilities and cleanup sites? Are there any that you can point to that we can rightly say are effective for DOE oversight purposes?</t>
   </si>
   <si>
@@ -617,6 +686,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Now we welcome and recognize Mr. Lujan for 5 minutes.</t>
+  </si>
+  <si>
+    <t>Lujan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lujan. Mr. Chairman, thank you so very much. And I really appreciate, Mr. Chairman, you and the ranking member bringing us together for this important hearing pertaining to the Waste Isolation Pilot Plant and Los Alamos National Laboratory EM, as well as the NNSA.    Mr. Whitney, as we work on these issues, I think it is important to remember that in executing the mission of these projects, as well as to Ms. Creedon, that we also work with these local communities. And, Mr. Whitney, are you committed to engaging and involving the surrounding local community in the prioritization and procurement of environmental cleanup efforts at Los Alamos National Laboratory?</t>
@@ -1019,7 +1091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,7 +1099,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,5141 +1121,6020 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
       <c r="H54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
       <c r="H58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
       <c r="H60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
       <c r="H62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
       <c r="H64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
       <c r="H66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
       <c r="H68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
       <c r="H70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
       <c r="H72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
       <c r="H74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
       <c r="H76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
       <c r="H78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
       <c r="H80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
       <c r="H82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
       <c r="H84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
       <c r="H85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
       <c r="H87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G88" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
       <c r="H89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G90" t="s">
+        <v>51</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
       <c r="H91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G92" t="s">
+        <v>51</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
       <c r="H93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G94" t="s">
+        <v>39</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
       <c r="H95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G96" t="s">
+        <v>39</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
       <c r="H97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
       <c r="H99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G100" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
       <c r="H101" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G102" t="s">
+        <v>39</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
       <c r="H103" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G104" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
       <c r="H105" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s">
+        <v>39</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
       <c r="H107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G108" t="s">
+        <v>42</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
       <c r="H109" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G110" t="s">
+        <v>42</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
       <c r="H111" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G112" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
       <c r="H113" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G114" t="s">
+        <v>39</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
       <c r="H115" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>118</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G117" t="s">
+        <v>134</v>
+      </c>
       <c r="H117" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I117" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G118" t="s">
+        <v>42</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>118</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G119" t="s">
+        <v>134</v>
+      </c>
       <c r="H119" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I119" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G120" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>118</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G121" t="s">
+        <v>134</v>
+      </c>
       <c r="H121" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>118</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G123" t="s">
+        <v>134</v>
+      </c>
       <c r="H123" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I123" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G124" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>118</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G125" t="s">
+        <v>134</v>
+      </c>
       <c r="H125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I125" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G126" t="s">
+        <v>39</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>118</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G127" t="s">
+        <v>134</v>
+      </c>
       <c r="H127" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I127" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G128" t="s">
+        <v>39</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>118</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G129" t="s">
+        <v>134</v>
+      </c>
       <c r="H129" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I129" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G130" t="s">
+        <v>39</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>118</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G131" t="s">
+        <v>134</v>
+      </c>
       <c r="H131" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I131" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>118</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G132" t="s">
+        <v>134</v>
+      </c>
       <c r="H132" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I132" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
       <c r="H133" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>136</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G134" t="s">
+        <v>154</v>
+      </c>
       <c r="H134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I134" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G135" t="s">
+        <v>39</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>136</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G136" t="s">
+        <v>154</v>
+      </c>
       <c r="H136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G137" t="s">
+        <v>39</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>136</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G138" t="s">
+        <v>154</v>
+      </c>
       <c r="H138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I138" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G139" t="s">
+        <v>51</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>136</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G140" t="s">
+        <v>154</v>
+      </c>
       <c r="H140" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I140" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G141" t="s">
+        <v>51</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>136</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G142" t="s">
+        <v>154</v>
+      </c>
       <c r="H142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G143" t="s">
+        <v>51</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>136</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G144" t="s">
+        <v>154</v>
+      </c>
       <c r="H144" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I144" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>149</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G146" t="s">
+        <v>169</v>
+      </c>
       <c r="H146" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I146" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>26</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G147" t="s">
+        <v>36</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>149</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G148" t="s">
+        <v>169</v>
+      </c>
       <c r="H148" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I148" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G149" t="s">
+        <v>36</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>149</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G150" t="s">
+        <v>169</v>
+      </c>
       <c r="H150" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I150" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G151" t="s">
+        <v>36</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>149</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G152" t="s">
+        <v>169</v>
+      </c>
       <c r="H152" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I152" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G153" t="s">
+        <v>36</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>149</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G154" t="s">
+        <v>169</v>
+      </c>
       <c r="H154" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I154" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G155" t="s">
+        <v>36</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>149</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G156" t="s">
+        <v>169</v>
+      </c>
       <c r="H156" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I156" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G157" t="s">
+        <v>36</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>149</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G158" t="s">
+        <v>169</v>
+      </c>
       <c r="H158" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I158" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>26</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G159" t="s">
+        <v>36</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>149</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G160" t="s">
+        <v>169</v>
+      </c>
       <c r="H160" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I160" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>26</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G161" t="s">
+        <v>36</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>149</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G162" t="s">
+        <v>169</v>
+      </c>
       <c r="H162" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I162" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>26</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G164" t="s">
+        <v>36</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
       <c r="H165" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>26</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G166" t="s">
+        <v>36</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>26</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G168" t="s">
+        <v>36</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>26</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G170" t="s">
+        <v>36</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>26</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s">
+        <v>39</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
       <c r="H173" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>178</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G174" t="s">
+        <v>200</v>
+      </c>
       <c r="H174" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I174" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>26</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s">
+        <v>36</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>26</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>39</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>178</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G177" t="s">
+        <v>200</v>
+      </c>
       <c r="H177" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I177" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>26</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G178" t="s">
+        <v>36</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>178</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G179" t="s">
+        <v>200</v>
+      </c>
       <c r="H179" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I179" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>26</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G180" t="s">
+        <v>36</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>178</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G181" t="s">
+        <v>200</v>
+      </c>
       <c r="H181" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I181" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>26</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G182" t="s">
+        <v>36</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>178</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G183" t="s">
+        <v>200</v>
+      </c>
       <c r="H183" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I183" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>26</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G184" t="s">
+        <v>36</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>178</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G185" t="s">
+        <v>200</v>
+      </c>
       <c r="H185" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I185" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>26</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G186" t="s">
+        <v>36</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>178</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G187" t="s">
+        <v>200</v>
+      </c>
       <c r="H187" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I187" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>26</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G188" t="s">
+        <v>36</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>178</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G189" t="s">
+        <v>200</v>
+      </c>
       <c r="H189" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I189" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>26</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G190" t="s">
+        <v>36</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>178</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G191" t="s">
+        <v>200</v>
+      </c>
       <c r="H191" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I191" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>26</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s">
+        <v>39</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>178</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G193" t="s">
+        <v>200</v>
+      </c>
       <c r="H193" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I193" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>26</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G194" t="s">
+        <v>39</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>178</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G195" t="s">
+        <v>200</v>
+      </c>
       <c r="H195" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I195" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
       <c r="H196" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>26</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G197" t="s">
+        <v>224</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>26</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G198" t="s">
+        <v>39</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>26</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G199" t="s">
+        <v>224</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>26</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G200" t="s">
+        <v>39</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>26</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G201" t="s">
+        <v>224</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>26</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G202" t="s">
+        <v>39</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>26</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G203" t="s">
+        <v>224</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>26</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G204" t="s">
+        <v>36</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>26</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G205" t="s">
+        <v>224</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>26</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G206" t="s">
+        <v>36</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>26</v>
-      </c>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G207" t="s">
+        <v>224</v>
+      </c>
+      <c r="H207" t="s"/>
+      <c r="I207" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>26</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G208" t="s">
+        <v>36</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>26</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G209" t="s">
+        <v>224</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
       <c r="H210" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I210" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>14</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G211" t="s">
+        <v>18</v>
+      </c>
       <c r="H211" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I211" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
       <c r="H212" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>26</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G213" t="s">
+        <v>42</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G214" t="s">
+        <v>13</v>
+      </c>
       <c r="H214" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
       <c r="H215" t="s">
-        <v>218</v>
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97612.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97612.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Murphy</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400101</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>DeGette</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>400032</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Blackburn</t>
   </si>
   <si>
@@ -152,6 +164,9 @@
   </si>
   <si>
     <t>400308</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Pallone</t>
@@ -1091,7 +1106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:J215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,7 +1114,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,6017 +1139,6468 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" t="s">
-        <v>42</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>42</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" t="s">
-        <v>42</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" t="s">
-        <v>42</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" t="s">
-        <v>42</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" t="s">
-        <v>42</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>42</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" t="s">
-        <v>42</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s">
-        <v>42</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75" t="s">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" t="s">
-        <v>42</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s">
-        <v>42</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" t="s">
-        <v>36</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
         <v>26</v>
       </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
       <c r="H87" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
-      </c>
-      <c r="G88" t="s">
-        <v>51</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>56</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" t="s">
         <v>26</v>
       </c>
-      <c r="G89" t="s">
-        <v>27</v>
-      </c>
       <c r="H89" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
-      </c>
-      <c r="G90" t="s">
-        <v>51</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>56</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s">
         <v>26</v>
       </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
       <c r="H91" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
-      </c>
-      <c r="G92" t="s">
-        <v>51</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>56</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" t="s">
         <v>26</v>
       </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
       <c r="H93" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
-      </c>
-      <c r="G94" t="s">
-        <v>39</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>43</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s">
         <v>26</v>
       </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
       <c r="H95" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
-      </c>
-      <c r="G96" t="s">
-        <v>39</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>43</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s">
         <v>26</v>
       </c>
-      <c r="G97" t="s">
-        <v>27</v>
-      </c>
       <c r="H97" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
-      </c>
-      <c r="G100" t="s">
-        <v>36</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102" t="s">
-        <v>39</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>43</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
-      </c>
-      <c r="G104" t="s">
-        <v>39</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>43</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
-      </c>
-      <c r="G106" t="s">
-        <v>39</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>43</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
-      </c>
-      <c r="G108" t="s">
-        <v>42</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
-      </c>
-      <c r="G110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
-      </c>
-      <c r="G112" t="s">
-        <v>36</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>40</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
-      </c>
-      <c r="G114" t="s">
-        <v>39</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>43</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J115" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G117" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="H117" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
-      </c>
-      <c r="G118" t="s">
-        <v>42</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>46</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G119" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="H119" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
-      </c>
-      <c r="G120" t="s">
-        <v>36</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>40</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G121" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="H121" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I121" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
-      </c>
-      <c r="G122" t="s">
-        <v>36</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>40</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G123" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="H123" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
-      </c>
-      <c r="G124" t="s">
-        <v>36</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>40</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G125" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="H125" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J125" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
-      </c>
-      <c r="G126" t="s">
-        <v>39</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>43</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G127" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="H127" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I127" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
-      </c>
-      <c r="G128" t="s">
-        <v>39</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G129" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="H129" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I129" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
-      </c>
-      <c r="G130" t="s">
-        <v>39</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>43</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G131" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="H131" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G132" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="H132" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J132" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G134" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I134" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
-      </c>
-      <c r="G135" t="s">
-        <v>39</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>43</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G136" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="H136" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I136" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J136" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
-      </c>
-      <c r="G137" t="s">
-        <v>39</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>43</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G138" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="H138" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I138" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
-      </c>
-      <c r="G139" t="s">
-        <v>51</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>56</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G140" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="H140" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I140" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
-      </c>
-      <c r="G141" t="s">
-        <v>51</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>56</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G142" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="H142" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I142" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J142" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
-      </c>
-      <c r="G143" t="s">
-        <v>51</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>56</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G144" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="H144" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I144" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J144" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G146" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I146" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
-      </c>
-      <c r="G147" t="s">
-        <v>36</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>40</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G148" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="H148" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I148" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
-      </c>
-      <c r="G149" t="s">
-        <v>36</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>40</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G150" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="H150" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I150" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="J150" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
-      </c>
-      <c r="G151" t="s">
-        <v>36</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>40</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G152" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="H152" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I152" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J152" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
-      </c>
-      <c r="G153" t="s">
-        <v>36</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>40</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G154" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="H154" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I154" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J154" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
-      </c>
-      <c r="G155" t="s">
-        <v>36</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>40</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G156" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="H156" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I156" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J156" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
-      </c>
-      <c r="G157" t="s">
-        <v>36</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>40</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G158" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="H158" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I158" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J158" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
-      </c>
-      <c r="G159" t="s">
-        <v>36</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>40</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G160" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="H160" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I160" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J160" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
-      </c>
-      <c r="G161" t="s">
-        <v>36</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>40</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G162" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="H162" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
-      </c>
-      <c r="G164" t="s">
-        <v>36</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>40</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
-      </c>
-      <c r="G166" t="s">
-        <v>36</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>40</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
-      </c>
-      <c r="G168" t="s">
-        <v>36</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>40</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I169" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
-      </c>
-      <c r="G170" t="s">
-        <v>36</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>40</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
-      </c>
-      <c r="G172" t="s">
-        <v>39</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>43</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G174" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I174" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J174" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
-      </c>
-      <c r="G175" t="s">
-        <v>36</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>40</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
-      </c>
-      <c r="G176" t="s">
-        <v>39</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>43</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G177" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H177" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I177" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J177" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
-      </c>
-      <c r="G178" t="s">
-        <v>36</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>40</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G179" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H179" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I179" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J179" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
-      </c>
-      <c r="G180" t="s">
-        <v>36</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>40</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G181" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H181" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I181" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J181" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
-      </c>
-      <c r="G182" t="s">
-        <v>36</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>40</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G183" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H183" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I183" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J183" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
-      </c>
-      <c r="G184" t="s">
-        <v>36</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>40</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G185" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H185" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I185" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J185" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
-      </c>
-      <c r="G186" t="s">
-        <v>36</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>40</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G187" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H187" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I187" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J187" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
-      </c>
-      <c r="G188" t="s">
-        <v>36</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>40</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G189" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H189" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I189" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J189" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
-      </c>
-      <c r="G190" t="s">
-        <v>36</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>40</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G191" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H191" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I191" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J191" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>39</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>43</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G193" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H193" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I193" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J193" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
-      </c>
-      <c r="G194" t="s">
-        <v>39</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>43</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G195" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H195" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I195" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J195" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I196" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J196" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
-      </c>
-      <c r="G197" t="s">
-        <v>224</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>229</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
-      </c>
-      <c r="G198" t="s">
-        <v>39</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>43</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
-      </c>
-      <c r="G199" t="s">
-        <v>224</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>229</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
-      </c>
-      <c r="G200" t="s">
-        <v>39</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>43</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
-      </c>
-      <c r="G201" t="s">
-        <v>224</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
+        <v>39</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
-      </c>
-      <c r="G202" t="s">
-        <v>39</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>43</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
-      </c>
-      <c r="G203" t="s">
-        <v>224</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>229</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
-      </c>
-      <c r="G204" t="s">
-        <v>36</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>40</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
-      </c>
-      <c r="G205" t="s">
-        <v>224</v>
-      </c>
-      <c r="H205" t="s"/>
-      <c r="I205" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G205" t="s"/>
+      <c r="H205" t="s">
+        <v>229</v>
+      </c>
+      <c r="I205" t="s"/>
+      <c r="J205" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
-      </c>
-      <c r="G206" t="s">
-        <v>36</v>
-      </c>
-      <c r="H206" t="s"/>
-      <c r="I206" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G206" t="s"/>
+      <c r="H206" t="s">
+        <v>40</v>
+      </c>
+      <c r="I206" t="s"/>
+      <c r="J206" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
-      </c>
-      <c r="G207" t="s">
-        <v>224</v>
-      </c>
-      <c r="H207" t="s"/>
-      <c r="I207" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G207" t="s"/>
+      <c r="H207" t="s">
+        <v>229</v>
+      </c>
+      <c r="I207" t="s"/>
+      <c r="J207" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
-      </c>
-      <c r="G208" t="s">
-        <v>36</v>
-      </c>
-      <c r="H208" t="s"/>
-      <c r="I208" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G208" t="s"/>
+      <c r="H208" t="s">
+        <v>40</v>
+      </c>
+      <c r="I208" t="s"/>
+      <c r="J208" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
-      </c>
-      <c r="G209" t="s">
-        <v>224</v>
-      </c>
-      <c r="H209" t="s"/>
-      <c r="I209" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G209" t="s"/>
+      <c r="H209" t="s">
+        <v>229</v>
+      </c>
+      <c r="I209" t="s"/>
+      <c r="J209" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I210" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J210" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G211" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H211" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I211" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J211" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I212" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J212" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
-      </c>
-      <c r="G213" t="s">
-        <v>42</v>
-      </c>
-      <c r="H213" t="s"/>
-      <c r="I213" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G213" t="s"/>
+      <c r="H213" t="s">
+        <v>46</v>
+      </c>
+      <c r="I213" t="s"/>
+      <c r="J213" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I214" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J214" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I215" t="s">
-        <v>242</v>
+        <v>16</v>
+      </c>
+      <c r="J215" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
